--- a/文档/个人文档/李安妮/11.个人总结报告_李安妮.xlsx
+++ b/文档/个人文档/李安妮/11.个人总结报告_李安妮.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -297,7 +297,13 @@
     <t>项目组名称</t>
   </si>
   <si>
+    <t>GDGM422</t>
+  </si>
+  <si>
     <t>实训经理</t>
+  </si>
+  <si>
+    <t>李辉老师</t>
   </si>
   <si>
     <t>项目负责人</t>
@@ -318,7 +324,7 @@
     <t>填写人学校</t>
   </si>
   <si>
-    <t>广东工贸</t>
+    <t>广东工贸职业技术学院</t>
   </si>
   <si>
     <t>填写人专业</t>
@@ -382,10 +388,19 @@
     <t>本次实训项目讲师对您最有帮助的内容</t>
   </si>
   <si>
+    <t>1、通过针对性Vue的实训，对Vue的应用有更深的了解</t>
+  </si>
+  <si>
     <t>您在本次实训项目中认为公司或讲师最值得继续坚持的内容</t>
   </si>
   <si>
+    <t>对问题能有针对地解答，并给出解决思路</t>
+  </si>
+  <si>
     <t>您在本次实训项目中认为公司或讲师应该加以改进的内容</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>您对实训经理的意见和建议</t>
@@ -399,17 +414,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="mmm"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mmm"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="65">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -434,6 +449,16 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Frutiger LT 55 Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -611,46 +636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,11 +650,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -689,7 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,22 +704,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,8 +725,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,6 +768,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color indexed="36"/>
@@ -771,17 +801,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="仿宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="黑体"/>
+      <name val="MS Sans Serif"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="MS Sans Serif"/>
+      <name val="仿宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -836,19 +861,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,19 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,42 +993,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -968,37 +1005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,21 +1098,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1112,13 +1122,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,6 +1178,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1185,184 +1210,184 @@
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="15" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="58" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1382,6 +1407,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1447,6 +1481,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1468,179 +1508,182 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="64" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="63" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
@@ -1649,41 +1692,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
@@ -1757,8 +1800,8 @@
     <cellStyle name="Header2" xfId="60"/>
     <cellStyle name="New Times Roman" xfId="61"/>
     <cellStyle name="標準_(D)日程計画" xfId="62"/>
-    <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="63"/>
-    <cellStyle name="常规_工作申请表Job Application Form" xfId="64"/>
+    <cellStyle name="常规_工作申请表Job Application Form" xfId="63"/>
+    <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="64"/>
     <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="65"/>
     <cellStyle name="普通_laroux" xfId="66"/>
     <cellStyle name="千位[0]_laroux" xfId="67"/>
@@ -20548,383 +20591,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="97" customWidth="1"/>
-    <col min="2" max="2" width="9" style="97"/>
-    <col min="3" max="3" width="8.375" style="97" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="97"/>
+    <col min="1" max="1" width="7.5" style="103" customWidth="1"/>
+    <col min="2" max="2" width="9" style="103"/>
+    <col min="3" max="3" width="8.375" style="103" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" s="96" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A1" s="55"/>
+    <row r="1" s="102" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A1" s="61"/>
     </row>
-    <row r="2" s="96" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A2" s="55" t="s">
+    <row r="2" s="102" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A3" s="58" t="s">
+    <row r="3" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="98"/>
+    <row r="4" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="104"/>
     </row>
-    <row r="5" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A5" s="98"/>
+    <row r="5" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="104"/>
     </row>
-    <row r="6" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="98"/>
+    <row r="6" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="104"/>
     </row>
-    <row r="7" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="98"/>
+    <row r="7" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="104"/>
     </row>
-    <row r="8" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A8" s="98"/>
+    <row r="8" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="104"/>
     </row>
-    <row r="9" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A9" s="98"/>
+    <row r="9" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A9" s="104"/>
     </row>
-    <row r="10" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A10" s="98"/>
+    <row r="10" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A10" s="104"/>
     </row>
-    <row r="11" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A11" s="98"/>
+    <row r="11" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="104"/>
     </row>
-    <row r="12" s="96" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A12" s="98"/>
-      <c r="C12" s="99"/>
+    <row r="12" s="102" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A12" s="104"/>
+      <c r="C12" s="105"/>
     </row>
-    <row r="13" s="96" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A13" s="98"/>
+    <row r="13" s="102" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A13" s="104"/>
     </row>
-    <row r="14" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
+    <row r="14" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A14" s="106"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
     </row>
-    <row r="15" s="96" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="102" t="s">
+    <row r="15" s="102" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
+      <c r="A15" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
     </row>
-    <row r="16" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A16" s="104"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
+    <row r="16" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A16" s="110"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
     </row>
-    <row r="17" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A17" s="105" t="s">
+    <row r="17" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A17" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
     </row>
-    <row r="18" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A18" s="68">
+    <row r="18" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A18" s="74">
         <v>40126</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
     </row>
-    <row r="19" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A19" s="100"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
+    <row r="19" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A19" s="106"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
     </row>
-    <row r="20" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A20" s="100"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
+    <row r="20" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
     </row>
-    <row r="21" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A21" s="100"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
+    <row r="21" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
     </row>
-    <row r="22" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A22" s="100"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
+    <row r="22" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
     </row>
-    <row r="23" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="100"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
+    <row r="23" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A23" s="106"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
     </row>
-    <row r="24" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="100"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
+    <row r="24" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A24" s="106"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
     </row>
-    <row r="25" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="100"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
+    <row r="25" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A25" s="106"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
     </row>
-    <row r="26" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="100"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
+    <row r="26" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A26" s="106"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
     </row>
-    <row r="27" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="100"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
+    <row r="27" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A27" s="106"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
     </row>
-    <row r="28" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="100"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
+    <row r="28" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A28" s="106"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
     </row>
-    <row r="29" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="100"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
+    <row r="29" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A29" s="106"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
     </row>
-    <row r="30" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
+    <row r="30" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
     </row>
-    <row r="31" s="96" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
+    <row r="31" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A31" s="106"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
     </row>
-    <row r="32" s="96" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
+    <row r="32" s="102" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A32" s="106"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
     </row>
-    <row r="33" s="96" customFormat="1" ht="19.5" spans="1:10">
-      <c r="A33" s="106" t="s">
+    <row r="33" s="102" customFormat="1" ht="19.5" spans="1:10">
+      <c r="A33" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="111"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="117"/>
     </row>
-    <row r="34" s="96" customFormat="1" ht="19.5" spans="1:10">
-      <c r="A34" s="107" t="s">
+    <row r="34" s="102" customFormat="1" ht="19.5" spans="1:10">
+      <c r="A34" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="111"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="117"/>
     </row>
-    <row r="35" s="96" customFormat="1" spans="1:10">
-      <c r="A35" s="108"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="111"/>
+    <row r="35" s="102" customFormat="1" spans="1:10">
+      <c r="A35" s="114"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="117"/>
     </row>
-    <row r="36" s="96" customFormat="1" spans="1:9">
-      <c r="A36" s="101"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
+    <row r="36" s="102" customFormat="1" spans="1:9">
+      <c r="A36" s="107"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
     </row>
-    <row r="37" s="96" customFormat="1"/>
-    <row r="38" s="96" customFormat="1"/>
-    <row r="39" s="96" customFormat="1"/>
-    <row r="40" s="96" customFormat="1"/>
-    <row r="41" s="96" customFormat="1"/>
+    <row r="37" s="102" customFormat="1"/>
+    <row r="38" s="102" customFormat="1"/>
+    <row r="39" s="102" customFormat="1"/>
+    <row r="40" s="102" customFormat="1"/>
+    <row r="41" s="102" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="109"/>
+      <c r="A58" s="115"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="110"/>
+      <c r="A59" s="116"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="112"/>
+      <c r="A101" s="118"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="112"/>
+      <c r="A102" s="118"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="112"/>
+      <c r="A103" s="118"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="112"/>
+      <c r="A104" s="118"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="112"/>
+      <c r="A105" s="118"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="112"/>
+      <c r="A106" s="118"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="112"/>
+      <c r="A107" s="118"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="112"/>
+      <c r="A108" s="118"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="112"/>
+      <c r="A109" s="118"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="112"/>
+      <c r="A110" s="118"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="112"/>
+      <c r="A111" s="118"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="112"/>
+      <c r="A112" s="118"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="112"/>
+      <c r="A113" s="118"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="112"/>
+      <c r="A114" s="118"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="112"/>
+      <c r="A115" s="118"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="112"/>
+      <c r="A116" s="118"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="112"/>
+      <c r="A117" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20947,208 +20990,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="84" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="84" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="84" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="84" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="84"/>
+    <col min="1" max="1" width="10.875" style="90" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="90" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="90" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="90" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="90"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:5">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:4">
-      <c r="A2" s="88"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="90">
+    <row r="4" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A4" s="96">
         <v>1</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="98">
         <v>40126</v>
       </c>
     </row>
-    <row r="5" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+    <row r="5" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
     </row>
-    <row r="6" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
+    <row r="6" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
     </row>
-    <row r="7" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
+    <row r="7" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A7" s="96"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
     </row>
-    <row r="8" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
+    <row r="8" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
     </row>
-    <row r="9" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
+    <row r="9" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A9" s="96"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
     </row>
-    <row r="10" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A10" s="90"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
+    <row r="10" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A10" s="96"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
     </row>
-    <row r="11" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A11" s="90"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
+    <row r="11" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A11" s="96"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
     </row>
-    <row r="12" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A12" s="90"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
+    <row r="12" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A12" s="96"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
     </row>
-    <row r="13" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A13" s="90"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+    <row r="13" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A13" s="96"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
     </row>
-    <row r="14" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A14" s="90"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+    <row r="14" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
     </row>
-    <row r="15" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A15" s="90"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
+    <row r="15" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A15" s="96"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
     </row>
-    <row r="16" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A16" s="90"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
+    <row r="16" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A16" s="96"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
     </row>
-    <row r="17" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A17" s="90"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
+    <row r="17" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A17" s="96"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
     </row>
-    <row r="18" s="83" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A18" s="90"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="92"/>
+    <row r="18" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="98"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A19" s="90"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="92"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="98"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A20" s="90"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="92"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="98"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A21" s="90"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="92"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="98"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="95"/>
+      <c r="A95" s="101"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="95"/>
+      <c r="A96" s="101"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="95"/>
+      <c r="A97" s="101"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="95"/>
+      <c r="A98" s="101"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="95"/>
+      <c r="A99" s="101"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="95"/>
+      <c r="A100" s="101"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="95"/>
+      <c r="A101" s="101"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="95"/>
+      <c r="A102" s="101"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="95"/>
+      <c r="A103" s="101"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="95"/>
+      <c r="A104" s="101"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="95"/>
+      <c r="A105" s="101"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="95"/>
+      <c r="A106" s="101"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="95"/>
+      <c r="A107" s="101"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="95"/>
+      <c r="A108" s="101"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="95"/>
+      <c r="A109" s="101"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="95"/>
+      <c r="A110" s="101"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="95"/>
+      <c r="A111" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21167,327 +21210,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="53" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="53" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="53" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="53"/>
+    <col min="1" max="1" width="9.25" style="59" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="59" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="59" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="59" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="59" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A1" s="54"/>
+    <row r="1" s="54" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A1" s="60"/>
     </row>
-    <row r="2" s="48" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="55" t="s">
+    <row r="2" s="54" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
+      <c r="A2" s="61" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="49" customFormat="1" ht="22.5" spans="1:9">
-      <c r="A3" s="56" t="s">
+    <row r="3" s="55" customFormat="1" ht="22.5" spans="1:9">
+      <c r="A3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
     </row>
-    <row r="4" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="58" t="s">
+    <row r="4" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A5" s="59"/>
+    <row r="5" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="65"/>
     </row>
-    <row r="6" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="59"/>
+    <row r="6" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="65"/>
     </row>
-    <row r="7" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="59"/>
+    <row r="7" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="65"/>
     </row>
-    <row r="8" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A8" s="59"/>
+    <row r="8" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="65"/>
     </row>
-    <row r="9" s="48" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="59"/>
+    <row r="9" s="54" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
+      <c r="A9" s="65"/>
     </row>
-    <row r="10" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A10" s="59"/>
+    <row r="10" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A10" s="65"/>
     </row>
-    <row r="11" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A11" s="59"/>
+    <row r="11" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="65"/>
     </row>
-    <row r="12" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A12" s="59"/>
+    <row r="12" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A12" s="65"/>
     </row>
-    <row r="13" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A13" s="59"/>
+    <row r="13" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A13" s="65"/>
     </row>
-    <row r="14" s="48" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A14" s="59"/>
+    <row r="14" s="54" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A14" s="65"/>
     </row>
-    <row r="15" s="48" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+    <row r="15" s="54" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
     </row>
-    <row r="16" s="50" customFormat="1" ht="46.5" spans="1:8">
-      <c r="A16" s="62" t="s">
+    <row r="16" s="56" customFormat="1" ht="46.5" spans="1:8">
+      <c r="A16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
     </row>
-    <row r="17" s="50" customFormat="1" spans="1:8">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
+    <row r="17" s="56" customFormat="1" spans="1:8">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
     </row>
-    <row r="18" s="48" customFormat="1" ht="53.25" spans="1:8">
-      <c r="A18" s="66" t="s">
+    <row r="18" s="54" customFormat="1" ht="53.25" spans="1:8">
+      <c r="A18" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
     </row>
-    <row r="19" s="48" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+    <row r="19" s="54" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
     </row>
-    <row r="20" s="48" customFormat="1" ht="45.75" spans="1:8">
-      <c r="A20" s="67"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
+    <row r="20" s="54" customFormat="1" ht="45.75" spans="1:8">
+      <c r="A20" s="73"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
     </row>
-    <row r="21" s="48" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A21" s="68"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
+    <row r="21" s="54" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A21" s="74"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
     </row>
-    <row r="22" s="48" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A22" s="69" t="s">
+    <row r="22" s="54" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A22" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
     </row>
-    <row r="23" s="48" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A23" s="60"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
+    <row r="23" s="54" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
     </row>
-    <row r="24" s="48" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="60"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+    <row r="24" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
     </row>
-    <row r="25" s="48" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="60"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+    <row r="25" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A25" s="66"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
     </row>
-    <row r="26" s="48" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="60"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
+    <row r="26" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
     </row>
-    <row r="27" s="48" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+    <row r="27" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
     </row>
-    <row r="28" s="48" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="60"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+    <row r="28" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
     </row>
-    <row r="29" s="51" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A29" s="71" t="s">
+    <row r="29" s="57" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A29" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
     </row>
-    <row r="30" s="51" customFormat="1" spans="1:8">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
+    <row r="30" s="57" customFormat="1" spans="1:8">
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
     </row>
-    <row r="31" s="51" customFormat="1" spans="1:8">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
+    <row r="31" s="57" customFormat="1" spans="1:8">
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
     </row>
-    <row r="32" s="51" customFormat="1" spans="1:8">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
+    <row r="32" s="57" customFormat="1" spans="1:8">
+      <c r="A32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
     </row>
-    <row r="33" s="52" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="75" t="s">
+    <row r="33" s="58" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="75" t="s">
+      <c r="B33" s="82"/>
+      <c r="C33" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="75" t="s">
+      <c r="D33" s="82"/>
+      <c r="E33" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="77" t="s">
+      <c r="F33" s="82"/>
+      <c r="G33" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="76"/>
+      <c r="H33" s="82"/>
     </row>
-    <row r="34" s="52" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="75" t="s">
+    <row r="34" s="58" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="75" t="s">
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
     </row>
-    <row r="35" s="48" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A35" s="60"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+    <row r="35" s="54" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
     </row>
-    <row r="36" s="48" customFormat="1" ht="19.5" spans="1:8">
-      <c r="A36" s="79"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
+    <row r="36" s="54" customFormat="1" ht="19.5" spans="1:8">
+      <c r="A36" s="85"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
     </row>
-    <row r="37" s="48" customFormat="1" ht="19.5" spans="1:8">
-      <c r="A37" s="80"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
+    <row r="37" s="54" customFormat="1" ht="19.5" spans="1:8">
+      <c r="A37" s="86"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
     </row>
-    <row r="38" s="48" customFormat="1"/>
+    <row r="38" s="54" customFormat="1"/>
     <row r="55" ht="14.25" spans="1:1">
-      <c r="A55" s="81"/>
+      <c r="A55" s="87"/>
     </row>
     <row r="56" ht="14.25" spans="1:1">
-      <c r="A56" s="82"/>
+      <c r="A56" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -21512,273 +21555,273 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="37" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="37" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="37"/>
+    <col min="1" max="1" width="2.875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="43" customWidth="1"/>
+    <col min="4" max="5" width="8.75" style="43" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="43" customWidth="1"/>
+    <col min="7" max="7" width="33.25" style="43" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="2:7">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" ht="9" customHeight="1" spans="2:7">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="36" customFormat="1" spans="2:7">
-      <c r="B4" s="43">
+    <row r="4" s="42" customFormat="1" spans="2:7">
+      <c r="B4" s="49">
         <v>1</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
     </row>
-    <row r="5" s="36" customFormat="1" spans="2:7">
-      <c r="B5" s="43">
+    <row r="5" s="42" customFormat="1" spans="2:7">
+      <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
-    <row r="6" s="36" customFormat="1" spans="2:7">
-      <c r="B6" s="43">
+    <row r="6" s="42" customFormat="1" spans="2:7">
+      <c r="B6" s="49">
         <v>3</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
     </row>
-    <row r="7" s="36" customFormat="1" spans="2:7">
-      <c r="B7" s="43">
+    <row r="7" s="42" customFormat="1" spans="2:7">
+      <c r="B7" s="49">
         <v>4</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
     </row>
-    <row r="8" s="36" customFormat="1" spans="2:7">
-      <c r="B8" s="43">
+    <row r="8" s="42" customFormat="1" spans="2:7">
+      <c r="B8" s="49">
         <v>5</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
     </row>
-    <row r="9" s="36" customFormat="1" spans="2:7">
-      <c r="B9" s="43">
+    <row r="9" s="42" customFormat="1" spans="2:7">
+      <c r="B9" s="49">
         <v>6</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
-    <row r="10" s="36" customFormat="1" spans="2:7">
-      <c r="B10" s="43">
+    <row r="10" s="42" customFormat="1" spans="2:7">
+      <c r="B10" s="49">
         <v>7</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
-    <row r="11" s="36" customFormat="1" spans="2:7">
-      <c r="B11" s="43">
+    <row r="11" s="42" customFormat="1" spans="2:7">
+      <c r="B11" s="49">
         <v>8</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
     </row>
-    <row r="12" s="36" customFormat="1" spans="2:7">
-      <c r="B12" s="43">
+    <row r="12" s="42" customFormat="1" spans="2:7">
+      <c r="B12" s="49">
         <v>9</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
     </row>
-    <row r="13" s="36" customFormat="1" spans="2:7">
-      <c r="B13" s="43">
+    <row r="13" s="42" customFormat="1" spans="2:7">
+      <c r="B13" s="49">
         <v>10</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
     </row>
-    <row r="14" s="36" customFormat="1" spans="2:7">
-      <c r="B14" s="43">
+    <row r="14" s="42" customFormat="1" spans="2:7">
+      <c r="B14" s="49">
         <v>11</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
     </row>
-    <row r="15" s="36" customFormat="1" spans="2:7">
-      <c r="B15" s="43">
+    <row r="15" s="42" customFormat="1" spans="2:7">
+      <c r="B15" s="49">
         <v>12</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
     </row>
-    <row r="16" s="36" customFormat="1" spans="2:7">
-      <c r="B16" s="43">
+    <row r="16" s="42" customFormat="1" spans="2:7">
+      <c r="B16" s="49">
         <v>13</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
     </row>
-    <row r="17" s="36" customFormat="1" spans="2:7">
-      <c r="B17" s="43">
+    <row r="17" s="42" customFormat="1" spans="2:7">
+      <c r="B17" s="49">
         <v>14</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
     </row>
-    <row r="18" s="36" customFormat="1" spans="2:7">
-      <c r="B18" s="43">
+    <row r="18" s="42" customFormat="1" spans="2:7">
+      <c r="B18" s="49">
         <v>15</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
     </row>
-    <row r="19" s="36" customFormat="1" spans="2:7">
-      <c r="B19" s="43">
+    <row r="19" s="42" customFormat="1" spans="2:7">
+      <c r="B19" s="49">
         <v>16</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
     </row>
-    <row r="20" s="36" customFormat="1" spans="2:7">
-      <c r="B20" s="43">
+    <row r="20" s="42" customFormat="1" spans="2:7">
+      <c r="B20" s="49">
         <v>17</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
     </row>
-    <row r="21" s="36" customFormat="1" spans="2:7">
-      <c r="B21" s="43">
+    <row r="21" s="42" customFormat="1" spans="2:7">
+      <c r="B21" s="49">
         <v>18</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
     </row>
-    <row r="22" s="36" customFormat="1" spans="2:7">
-      <c r="B22" s="43">
+    <row r="22" s="42" customFormat="1" spans="2:7">
+      <c r="B22" s="49">
         <v>19</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
     </row>
-    <row r="23" s="36" customFormat="1" spans="2:7">
-      <c r="B23" s="43">
+    <row r="23" s="42" customFormat="1" spans="2:7">
+      <c r="B23" s="49">
         <v>20</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="46"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="46"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="46"/>
+      <c r="C27" s="52"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="46"/>
+      <c r="C28" s="52"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="46"/>
+      <c r="C29" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21794,8 +21837,8 @@
   <sheetPr/>
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -21846,406 +21889,420 @@
         <v>35</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:9">
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="7" t="s">
-        <v>41</v>
+      <c r="H6" s="10" t="s">
+        <v>43</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:9">
-      <c r="B7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:9">
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="10">
+      <c r="D8" s="13">
         <v>42948</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="11">
+      <c r="H8" s="14">
         <v>42957</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:9">
-      <c r="B9" s="12" t="s">
-        <v>48</v>
+      <c r="B9" s="15" t="s">
+        <v>50</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="31"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:9">
-      <c r="B10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="32"/>
+      <c r="C10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:9">
-      <c r="B11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="33"/>
+      <c r="C11" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:9">
-      <c r="B12" s="20" t="s">
-        <v>55</v>
+      <c r="B12" s="23" t="s">
+        <v>57</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>56</v>
+      <c r="C12" s="24" t="s">
+        <v>58</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="2:9">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="33"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="2:9">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="33"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:9">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="33"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="2:9">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="33"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="2:9">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="33"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="12" t="s">
-        <v>57</v>
+      <c r="B18" s="15" t="s">
+        <v>59</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="31"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="26" t="s">
-        <v>58</v>
+      <c r="B19" s="29" t="s">
+        <v>60</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="34"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="35"/>
+      <c r="B20" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="35"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" customHeight="1" spans="2:9">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="35"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" customHeight="1" spans="2:9">
-      <c r="B23" s="26" t="s">
-        <v>59</v>
+      <c r="B23" s="29" t="s">
+        <v>62</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="34"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="39"/>
     </row>
     <row r="24" customHeight="1" spans="2:9">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="35"/>
+      <c r="B24" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="40"/>
     </row>
     <row r="25" customHeight="1" spans="2:9">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="35"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" customHeight="1" spans="2:9">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="35"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="41"/>
     </row>
     <row r="27" customHeight="1" spans="2:9">
-      <c r="B27" s="26" t="s">
-        <v>60</v>
+      <c r="B27" s="29" t="s">
+        <v>64</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="34"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="35"/>
+      <c r="B28" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="35"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="41"/>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="35"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="41"/>
     </row>
     <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="26" t="s">
-        <v>61</v>
+      <c r="B31" s="29" t="s">
+        <v>66</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="34"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="39"/>
     </row>
     <row r="32" customHeight="1" spans="2:9">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="35"/>
+      <c r="B32" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="41"/>
     </row>
     <row r="33" customHeight="1" spans="2:9">
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="35"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="41"/>
     </row>
     <row r="34" customHeight="1" spans="2:9">
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="35"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="41"/>
     </row>
     <row r="35" customHeight="1" spans="2:9">
-      <c r="B35" s="12" t="s">
-        <v>62</v>
+      <c r="B35" s="15" t="s">
+        <v>67</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="31"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" customHeight="1" spans="2:9">
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
+      <c r="B36" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
     </row>
     <row r="37" customHeight="1" spans="2:9">
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" customHeight="1" spans="2:9">
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="57">

--- a/文档/个人文档/李安妮/11.个人总结报告_李安妮.xlsx
+++ b/文档/个人文档/李安妮/11.个人总结报告_李安妮.xlsx
@@ -382,6 +382,9 @@
     <t>学会了除var之外的其他5个变量</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>实训项目阶段总结</t>
   </si>
   <si>
@@ -400,9 +403,6 @@
     <t>您在本次实训项目中认为公司或讲师应该加以改进的内容</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>您对实训经理的意见和建议</t>
   </si>
   <si>
@@ -416,15 +416,15 @@
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mmm"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="mmm"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="63">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -449,16 +449,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Frutiger LT 55 Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -622,9 +612,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,7 +626,65 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,15 +699,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,37 +744,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,23 +761,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,32 +773,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="楷体_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -792,16 +792,6 @@
       <sz val="11"/>
       <color indexed="36"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
       <charset val="134"/>
     </font>
     <font>
@@ -843,13 +833,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,79 +863,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +911,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,19 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,37 +989,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,69 +1088,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1187,11 +1114,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,184 +1200,184 @@
   <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="62" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="15" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="61" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1409,17 +1399,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1481,12 +1465,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1508,182 +1486,179 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="64" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="63" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
@@ -1692,41 +1667,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
@@ -1800,8 +1775,8 @@
     <cellStyle name="Header2" xfId="60"/>
     <cellStyle name="New Times Roman" xfId="61"/>
     <cellStyle name="標準_(D)日程計画" xfId="62"/>
-    <cellStyle name="常规_工作申请表Job Application Form" xfId="63"/>
-    <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="64"/>
+    <cellStyle name="表示済みのハイパーリンク_02_1st_2ndOTP対応機能一覧_一応完成版" xfId="63"/>
+    <cellStyle name="常规_工作申请表Job Application Form" xfId="64"/>
     <cellStyle name="桁区切り [0.00]_(D)日程計画" xfId="65"/>
     <cellStyle name="普通_laroux" xfId="66"/>
     <cellStyle name="千位[0]_laroux" xfId="67"/>
@@ -20591,383 +20566,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="103" customWidth="1"/>
-    <col min="2" max="2" width="9" style="103"/>
-    <col min="3" max="3" width="8.375" style="103" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="103"/>
+    <col min="1" max="1" width="7.5" style="98" customWidth="1"/>
+    <col min="2" max="2" width="9" style="98"/>
+    <col min="3" max="3" width="8.375" style="98" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" s="102" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A1" s="61"/>
+    <row r="1" s="97" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A1" s="56"/>
     </row>
-    <row r="2" s="102" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A2" s="61" t="s">
+    <row r="2" s="97" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A3" s="64" t="s">
+    <row r="3" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="104"/>
+    <row r="4" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="99"/>
     </row>
-    <row r="5" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A5" s="104"/>
+    <row r="5" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="99"/>
     </row>
-    <row r="6" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="104"/>
+    <row r="6" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="99"/>
     </row>
-    <row r="7" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="104"/>
+    <row r="7" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="99"/>
     </row>
-    <row r="8" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A8" s="104"/>
+    <row r="8" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="99"/>
     </row>
-    <row r="9" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A9" s="104"/>
+    <row r="9" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A9" s="99"/>
     </row>
-    <row r="10" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A10" s="104"/>
+    <row r="10" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A10" s="99"/>
     </row>
-    <row r="11" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A11" s="104"/>
+    <row r="11" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="99"/>
     </row>
-    <row r="12" s="102" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A12" s="104"/>
-      <c r="C12" s="105"/>
+    <row r="12" s="97" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A12" s="99"/>
+      <c r="C12" s="100"/>
     </row>
-    <row r="13" s="102" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A13" s="104"/>
+    <row r="13" s="97" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A13" s="99"/>
     </row>
-    <row r="14" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A14" s="106"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
+    <row r="14" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A14" s="101"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
     </row>
-    <row r="15" s="102" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="108" t="s">
+    <row r="15" s="97" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
+      <c r="A15" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
     </row>
-    <row r="16" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A16" s="110"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
+    <row r="16" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A16" s="105"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
     </row>
-    <row r="17" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A17" s="111" t="s">
+    <row r="17" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A17" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
     </row>
-    <row r="18" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A18" s="74">
+    <row r="18" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A18" s="69">
         <v>40126</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
     </row>
-    <row r="19" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A19" s="106"/>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
+    <row r="19" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
     </row>
-    <row r="20" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A20" s="106"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
+    <row r="20" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
     </row>
-    <row r="21" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A21" s="106"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
+    <row r="21" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A21" s="101"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
     </row>
-    <row r="22" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
+    <row r="22" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
     </row>
-    <row r="23" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="106"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
+    <row r="23" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A23" s="101"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
     </row>
-    <row r="24" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="106"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
+    <row r="24" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
     </row>
-    <row r="25" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="106"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
+    <row r="25" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A25" s="101"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
     </row>
-    <row r="26" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="106"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
+    <row r="26" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A26" s="101"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
     </row>
-    <row r="27" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="106"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
+    <row r="27" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
     </row>
-    <row r="28" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="106"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
+    <row r="28" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A28" s="101"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
     </row>
-    <row r="29" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="106"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
+    <row r="29" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A29" s="101"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
     </row>
-    <row r="30" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="106"/>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
+    <row r="30" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A30" s="101"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
     </row>
-    <row r="31" s="102" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="106"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
+    <row r="31" s="97" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A31" s="101"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
     </row>
-    <row r="32" s="102" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A32" s="106"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
+    <row r="32" s="97" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A32" s="101"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
     </row>
-    <row r="33" s="102" customFormat="1" ht="19.5" spans="1:10">
-      <c r="A33" s="112" t="s">
+    <row r="33" s="97" customFormat="1" ht="19.5" spans="1:10">
+      <c r="A33" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="117"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="112"/>
     </row>
-    <row r="34" s="102" customFormat="1" ht="19.5" spans="1:10">
-      <c r="A34" s="113" t="s">
+    <row r="34" s="97" customFormat="1" ht="19.5" spans="1:10">
+      <c r="A34" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="117"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="112"/>
     </row>
-    <row r="35" s="102" customFormat="1" spans="1:10">
-      <c r="A35" s="114"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="117"/>
+    <row r="35" s="97" customFormat="1" spans="1:10">
+      <c r="A35" s="109"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="112"/>
     </row>
-    <row r="36" s="102" customFormat="1" spans="1:9">
-      <c r="A36" s="107"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
+    <row r="36" s="97" customFormat="1" spans="1:9">
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
     </row>
-    <row r="37" s="102" customFormat="1"/>
-    <row r="38" s="102" customFormat="1"/>
-    <row r="39" s="102" customFormat="1"/>
-    <row r="40" s="102" customFormat="1"/>
-    <row r="41" s="102" customFormat="1"/>
+    <row r="37" s="97" customFormat="1"/>
+    <row r="38" s="97" customFormat="1"/>
+    <row r="39" s="97" customFormat="1"/>
+    <row r="40" s="97" customFormat="1"/>
+    <row r="41" s="97" customFormat="1"/>
     <row r="58" spans="1:1">
-      <c r="A58" s="115"/>
+      <c r="A58" s="110"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="116"/>
+      <c r="A59" s="111"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="118"/>
+      <c r="A101" s="113"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="118"/>
+      <c r="A102" s="113"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="118"/>
+      <c r="A103" s="113"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="118"/>
+      <c r="A104" s="113"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="118"/>
+      <c r="A105" s="113"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="118"/>
+      <c r="A106" s="113"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="118"/>
+      <c r="A107" s="113"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="118"/>
+      <c r="A108" s="113"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="118"/>
+      <c r="A109" s="113"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="118"/>
+      <c r="A110" s="113"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="118"/>
+      <c r="A111" s="113"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="118"/>
+      <c r="A112" s="113"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="118"/>
+      <c r="A113" s="113"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="118"/>
+      <c r="A114" s="113"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="118"/>
+      <c r="A115" s="113"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="118"/>
+      <c r="A116" s="113"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="118"/>
+      <c r="A117" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20990,208 +20965,208 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="90" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="90" customWidth="1"/>
-    <col min="3" max="3" width="46.25" style="90" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="90" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="90"/>
+    <col min="1" max="1" width="10.875" style="85" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="85" customWidth="1"/>
+    <col min="3" max="3" width="46.25" style="85" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="85" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="85"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="1:5">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:4">
-      <c r="A2" s="94"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="90" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A4" s="96">
+    <row r="4" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A4" s="91">
         <v>1</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="93">
         <v>40126</v>
       </c>
     </row>
-    <row r="5" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+    <row r="5" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
     </row>
-    <row r="6" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
+    <row r="6" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
     </row>
-    <row r="7" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
+    <row r="7" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
     </row>
-    <row r="8" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
+    <row r="8" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
     </row>
-    <row r="9" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
+    <row r="9" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
     </row>
-    <row r="10" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A10" s="96"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
+    <row r="10" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A10" s="91"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
     </row>
-    <row r="11" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A11" s="96"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
+    <row r="11" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A11" s="91"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
     </row>
-    <row r="12" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A12" s="96"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
+    <row r="12" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A12" s="91"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
     </row>
-    <row r="13" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A13" s="96"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
+    <row r="13" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A13" s="91"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
     </row>
-    <row r="14" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A14" s="96"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
+    <row r="14" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A14" s="91"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
     </row>
-    <row r="15" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A15" s="96"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
+    <row r="15" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A15" s="91"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
     </row>
-    <row r="16" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A16" s="96"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
+    <row r="16" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A16" s="91"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
     </row>
-    <row r="17" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A17" s="96"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
+    <row r="17" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A17" s="91"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
     </row>
-    <row r="18" s="89" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A18" s="96"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="98"/>
+    <row r="18" s="84" customFormat="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A18" s="91"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="93"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A19" s="96"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="98"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="93"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A20" s="96"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="98"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="93"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A21" s="96"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="98"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="93"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="101"/>
+      <c r="A95" s="96"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="101"/>
+      <c r="A96" s="96"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="101"/>
+      <c r="A97" s="96"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="101"/>
+      <c r="A98" s="96"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="101"/>
+      <c r="A99" s="96"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="101"/>
+      <c r="A100" s="96"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="101"/>
+      <c r="A101" s="96"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="101"/>
+      <c r="A102" s="96"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="101"/>
+      <c r="A103" s="96"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="101"/>
+      <c r="A104" s="96"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="101"/>
+      <c r="A105" s="96"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="101"/>
+      <c r="A106" s="96"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="101"/>
+      <c r="A107" s="96"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="101"/>
+      <c r="A108" s="96"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="101"/>
+      <c r="A109" s="96"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="101"/>
+      <c r="A110" s="96"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="101"/>
+      <c r="A111" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21210,327 +21185,327 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="59" customWidth="1"/>
-    <col min="2" max="4" width="9.625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="59" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="59" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="59" customWidth="1"/>
-    <col min="9" max="16384" width="8" style="59"/>
+    <col min="1" max="1" width="9.25" style="54" customWidth="1"/>
+    <col min="2" max="4" width="9.625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="54" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="8" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" s="54" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A1" s="60"/>
+    <row r="1" s="49" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A1" s="55"/>
     </row>
-    <row r="2" s="54" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
-      <c r="A2" s="61" t="s">
+    <row r="2" s="49" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
+      <c r="A2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="55" customFormat="1" ht="22.5" spans="1:9">
-      <c r="A3" s="62" t="s">
+    <row r="3" s="50" customFormat="1" ht="22.5" spans="1:9">
+      <c r="A3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
-    <row r="4" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A4" s="64" t="s">
+    <row r="4" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A4" s="59" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A5" s="65"/>
+    <row r="5" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="60"/>
     </row>
-    <row r="6" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="65"/>
+    <row r="6" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="60"/>
     </row>
-    <row r="7" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="65"/>
+    <row r="7" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="60"/>
     </row>
-    <row r="8" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A8" s="65"/>
+    <row r="8" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="60"/>
     </row>
-    <row r="9" s="54" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
-      <c r="A9" s="65"/>
+    <row r="9" s="49" customFormat="1" ht="9.75" customHeight="1" spans="1:1">
+      <c r="A9" s="60"/>
     </row>
-    <row r="10" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A10" s="65"/>
+    <row r="10" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A10" s="60"/>
     </row>
-    <row r="11" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A11" s="65"/>
+    <row r="11" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="60"/>
     </row>
-    <row r="12" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A12" s="65"/>
+    <row r="12" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A12" s="60"/>
     </row>
-    <row r="13" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A13" s="65"/>
+    <row r="13" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A13" s="60"/>
     </row>
-    <row r="14" s="54" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A14" s="65"/>
+    <row r="14" s="49" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A14" s="60"/>
     </row>
-    <row r="15" s="54" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+    <row r="15" s="49" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
-    <row r="16" s="56" customFormat="1" ht="46.5" spans="1:8">
-      <c r="A16" s="68" t="s">
+    <row r="16" s="51" customFormat="1" ht="46.5" spans="1:8">
+      <c r="A16" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
     </row>
-    <row r="17" s="56" customFormat="1" spans="1:8">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
+    <row r="17" s="51" customFormat="1" spans="1:8">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
     </row>
-    <row r="18" s="54" customFormat="1" ht="53.25" spans="1:8">
-      <c r="A18" s="72" t="s">
+    <row r="18" s="49" customFormat="1" ht="53.25" spans="1:8">
+      <c r="A18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
     </row>
-    <row r="19" s="54" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+    <row r="19" s="49" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
     </row>
-    <row r="20" s="54" customFormat="1" ht="45.75" spans="1:8">
-      <c r="A20" s="73"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+    <row r="20" s="49" customFormat="1" ht="45.75" spans="1:8">
+      <c r="A20" s="68"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
     </row>
-    <row r="21" s="54" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A21" s="74"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+    <row r="21" s="49" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A21" s="69"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
     </row>
-    <row r="22" s="54" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A22" s="75" t="s">
+    <row r="22" s="49" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A22" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
     </row>
-    <row r="23" s="54" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+    <row r="23" s="49" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
     </row>
-    <row r="24" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+    <row r="24" s="49" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
     </row>
-    <row r="25" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+    <row r="25" s="49" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
     </row>
-    <row r="26" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A26" s="66"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+    <row r="26" s="49" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
     </row>
-    <row r="27" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A27" s="66"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+    <row r="27" s="49" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
     </row>
-    <row r="28" s="54" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+    <row r="28" s="49" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
-    <row r="29" s="57" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
-      <c r="A29" s="77" t="s">
+    <row r="29" s="52" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
+      <c r="A29" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
     </row>
-    <row r="30" s="57" customFormat="1" spans="1:8">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
+    <row r="30" s="52" customFormat="1" spans="1:8">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
     </row>
-    <row r="31" s="57" customFormat="1" spans="1:8">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
+    <row r="31" s="52" customFormat="1" spans="1:8">
+      <c r="A31" s="74"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
     </row>
-    <row r="32" s="57" customFormat="1" spans="1:8">
-      <c r="A32" s="79"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
+    <row r="32" s="52" customFormat="1" spans="1:8">
+      <c r="A32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
     </row>
-    <row r="33" s="58" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A33" s="81" t="s">
+    <row r="33" s="53" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A33" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="81" t="s">
+      <c r="B33" s="77"/>
+      <c r="C33" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="81" t="s">
+      <c r="D33" s="77"/>
+      <c r="E33" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83" t="s">
+      <c r="F33" s="77"/>
+      <c r="G33" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="82"/>
+      <c r="H33" s="77"/>
     </row>
-    <row r="34" s="58" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
-      <c r="A34" s="81" t="s">
+    <row r="34" s="53" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A34" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="81" t="s">
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
     </row>
-    <row r="35" s="54" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A35" s="66"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+    <row r="35" s="49" customFormat="1" ht="18.75" spans="1:8">
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
     </row>
-    <row r="36" s="54" customFormat="1" ht="19.5" spans="1:8">
-      <c r="A36" s="85"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
+    <row r="36" s="49" customFormat="1" ht="19.5" spans="1:8">
+      <c r="A36" s="80"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
     </row>
-    <row r="37" s="54" customFormat="1" ht="19.5" spans="1:8">
-      <c r="A37" s="86"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+    <row r="37" s="49" customFormat="1" ht="19.5" spans="1:8">
+      <c r="A37" s="81"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
     </row>
-    <row r="38" s="54" customFormat="1"/>
+    <row r="38" s="49" customFormat="1"/>
     <row r="55" ht="14.25" spans="1:1">
-      <c r="A55" s="87"/>
+      <c r="A55" s="82"/>
     </row>
     <row r="56" ht="14.25" spans="1:1">
-      <c r="A56" s="88"/>
+      <c r="A56" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -21555,273 +21530,273 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="43" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="43" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="43" customWidth="1"/>
-    <col min="7" max="7" width="33.25" style="43" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="2.875" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="38" customWidth="1"/>
+    <col min="4" max="5" width="8.75" style="38" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="38" customWidth="1"/>
+    <col min="7" max="7" width="33.25" style="38" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" spans="2:7">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" ht="9" customHeight="1" spans="2:7">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="42" customFormat="1" spans="2:7">
-      <c r="B4" s="49">
+    <row r="4" s="37" customFormat="1" spans="2:7">
+      <c r="B4" s="44">
         <v>1</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
-    <row r="5" s="42" customFormat="1" spans="2:7">
-      <c r="B5" s="49">
+    <row r="5" s="37" customFormat="1" spans="2:7">
+      <c r="B5" s="44">
         <v>2</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
-    <row r="6" s="42" customFormat="1" spans="2:7">
-      <c r="B6" s="49">
+    <row r="6" s="37" customFormat="1" spans="2:7">
+      <c r="B6" s="44">
         <v>3</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
-    <row r="7" s="42" customFormat="1" spans="2:7">
-      <c r="B7" s="49">
+    <row r="7" s="37" customFormat="1" spans="2:7">
+      <c r="B7" s="44">
         <v>4</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
-    <row r="8" s="42" customFormat="1" spans="2:7">
-      <c r="B8" s="49">
+    <row r="8" s="37" customFormat="1" spans="2:7">
+      <c r="B8" s="44">
         <v>5</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
-    <row r="9" s="42" customFormat="1" spans="2:7">
-      <c r="B9" s="49">
+    <row r="9" s="37" customFormat="1" spans="2:7">
+      <c r="B9" s="44">
         <v>6</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
-    <row r="10" s="42" customFormat="1" spans="2:7">
-      <c r="B10" s="49">
+    <row r="10" s="37" customFormat="1" spans="2:7">
+      <c r="B10" s="44">
         <v>7</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
     </row>
-    <row r="11" s="42" customFormat="1" spans="2:7">
-      <c r="B11" s="49">
+    <row r="11" s="37" customFormat="1" spans="2:7">
+      <c r="B11" s="44">
         <v>8</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
-    <row r="12" s="42" customFormat="1" spans="2:7">
-      <c r="B12" s="49">
+    <row r="12" s="37" customFormat="1" spans="2:7">
+      <c r="B12" s="44">
         <v>9</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
-    <row r="13" s="42" customFormat="1" spans="2:7">
-      <c r="B13" s="49">
+    <row r="13" s="37" customFormat="1" spans="2:7">
+      <c r="B13" s="44">
         <v>10</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
-    <row r="14" s="42" customFormat="1" spans="2:7">
-      <c r="B14" s="49">
+    <row r="14" s="37" customFormat="1" spans="2:7">
+      <c r="B14" s="44">
         <v>11</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
     </row>
-    <row r="15" s="42" customFormat="1" spans="2:7">
-      <c r="B15" s="49">
+    <row r="15" s="37" customFormat="1" spans="2:7">
+      <c r="B15" s="44">
         <v>12</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
     </row>
-    <row r="16" s="42" customFormat="1" spans="2:7">
-      <c r="B16" s="49">
+    <row r="16" s="37" customFormat="1" spans="2:7">
+      <c r="B16" s="44">
         <v>13</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
-    <row r="17" s="42" customFormat="1" spans="2:7">
-      <c r="B17" s="49">
+    <row r="17" s="37" customFormat="1" spans="2:7">
+      <c r="B17" s="44">
         <v>14</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
     </row>
-    <row r="18" s="42" customFormat="1" spans="2:7">
-      <c r="B18" s="49">
+    <row r="18" s="37" customFormat="1" spans="2:7">
+      <c r="B18" s="44">
         <v>15</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
     </row>
-    <row r="19" s="42" customFormat="1" spans="2:7">
-      <c r="B19" s="49">
+    <row r="19" s="37" customFormat="1" spans="2:7">
+      <c r="B19" s="44">
         <v>16</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
     </row>
-    <row r="20" s="42" customFormat="1" spans="2:7">
-      <c r="B20" s="49">
+    <row r="20" s="37" customFormat="1" spans="2:7">
+      <c r="B20" s="44">
         <v>17</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
     </row>
-    <row r="21" s="42" customFormat="1" spans="2:7">
-      <c r="B21" s="49">
+    <row r="21" s="37" customFormat="1" spans="2:7">
+      <c r="B21" s="44">
         <v>18</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
     </row>
-    <row r="22" s="42" customFormat="1" spans="2:7">
-      <c r="B22" s="49">
+    <row r="22" s="37" customFormat="1" spans="2:7">
+      <c r="B22" s="44">
         <v>19</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
     </row>
-    <row r="23" s="42" customFormat="1" spans="2:7">
-      <c r="B23" s="49">
+    <row r="23" s="37" customFormat="1" spans="2:7">
+      <c r="B23" s="44">
         <v>20</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="52"/>
+      <c r="C24" s="47"/>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="47"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="52"/>
+      <c r="C26" s="47"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="52"/>
+      <c r="C27" s="47"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="52"/>
+      <c r="C28" s="47"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="52"/>
+      <c r="C29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21837,8 +21812,8 @@
   <sheetPr/>
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
@@ -21902,13 +21877,13 @@
       <c r="D5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:9">
       <c r="B6" s="5" t="s">
@@ -21923,35 +21898,35 @@
         <v>42</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:9">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:9">
       <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <v>42948</v>
       </c>
       <c r="E8" s="6"/>
@@ -21959,350 +21934,352 @@
         <v>49</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <v>42957</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:9">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="36"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:9">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="37"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:9">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="38"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:9">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="38"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" ht="15" customHeight="1" spans="2:9">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="38"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="2:9">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="38"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:9">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="38"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="2:9">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="38"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="2:9">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="38"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:9">
+      <c r="B19" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:9">
+      <c r="B20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:9">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:9">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:9">
+      <c r="B23" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:9">
+      <c r="B24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:9">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:9">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:9">
+      <c r="B27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:9">
+      <c r="B28" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="36"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:9">
-      <c r="B19" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="40"/>
-    </row>
-    <row r="21" customHeight="1" spans="2:9">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="40"/>
-    </row>
-    <row r="22" customHeight="1" spans="2:9">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="41"/>
-    </row>
-    <row r="23" customHeight="1" spans="2:9">
-      <c r="B23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:9">
-      <c r="B24" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="40"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:9">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:9">
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:9">
-      <c r="B27" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="39"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="41"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="41"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="41"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="39"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" customHeight="1" spans="2:9">
-      <c r="B32" s="33" t="s">
-        <v>65</v>
+      <c r="B32" s="29" t="s">
+        <v>59</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="41"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" customHeight="1" spans="2:9">
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="41"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" customHeight="1" spans="2:9">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="41"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" customHeight="1" spans="2:9">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="36"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" customHeight="1" spans="2:9">
-      <c r="B36" s="35" t="s">
-        <v>65</v>
+      <c r="B36" s="31" t="s">
+        <v>59</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" customHeight="1" spans="2:9">
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" customHeight="1" spans="2:9">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="57">
